--- a/ps3/q1.xlsx
+++ b/ps3/q1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunerilhan/Dropbox/Kent-Teaching/EconomicGrowth/economicgrowth/ps3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B834C23-6465-454B-BF71-E6A34C3EE362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB2CED-B796-CA4F-A674-BF4236E0784D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27360" windowHeight="17540" activeTab="3" xr2:uid="{3070CEEF-AF03-0849-8556-ABB889FD50A6}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27360" windowHeight="17540" activeTab="2" xr2:uid="{3070CEEF-AF03-0849-8556-ABB889FD50A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="productivity" sheetId="3" r:id="rId2"/>
-    <sheet name="productivity growth" sheetId="5" r:id="rId3"/>
-    <sheet name="output per worker" sheetId="4" r:id="rId4"/>
+    <sheet name="productivity" sheetId="7" r:id="rId1"/>
+    <sheet name="productivity growth" sheetId="8" r:id="rId2"/>
+    <sheet name="output per worker" sheetId="9" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1754,7 +1754,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1456-3D48-AB74-2539E8F14D9F}"/>
+              <c16:uniqueId val="{00000000-09AA-5441-B997-3C8A9E38E4C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3311,7 +3311,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1456-3D48-AB74-2539E8F14D9F}"/>
+              <c16:uniqueId val="{00000001-09AA-5441-B997-3C8A9E38E4C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3324,11 +3324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="752359807"/>
-        <c:axId val="752361023"/>
+        <c:axId val="2109556496"/>
+        <c:axId val="2109558128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="752359807"/>
+        <c:axId val="2109556496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3371,7 +3371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752361023"/>
+        <c:crossAx val="2109558128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3379,7 +3379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="752361023"/>
+        <c:axId val="2109558128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3431,7 +3431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752359807"/>
+        <c:crossAx val="2109556496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3550,6 +3550,11 @@
               <a:rPr lang="en-US"/>
               <a:t>Productivity Growth</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3624,6 +3629,768 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$A$4:$A$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="251"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>data!$H$4:$H$254</c:f>
@@ -4389,7 +5156,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5828-044C-92BF-02F3FA73E812}"/>
+              <c16:uniqueId val="{00000000-8A70-D746-8C91-0FB9CA7A6CDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4429,6 +5196,768 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$A$4:$A$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="251"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>data!$I$4:$I$254</c:f>
@@ -5194,7 +6723,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5828-044C-92BF-02F3FA73E812}"/>
+              <c16:uniqueId val="{00000001-8A70-D746-8C91-0FB9CA7A6CDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5206,16 +6735,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="774051711"/>
-        <c:axId val="776069407"/>
+        <c:axId val="2112462432"/>
+        <c:axId val="2111988704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="774051711"/>
+        <c:axId val="2112462432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5252,12 +6782,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776069407"/>
+        <c:crossAx val="2111988704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="776069407"/>
+        <c:axId val="2111988704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5308,7 +6838,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="774051711"/>
+        <c:crossAx val="2112462432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5425,13 +6955,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Output</a:t>
+              <a:t>Output per worker</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> per worker</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7023,7 +8548,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5466-C047-AB80-29EC72CFAAB4}"/>
+              <c16:uniqueId val="{00000000-BCB0-214E-BFB1-8C2B2BDB882C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8580,7 +10105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5466-C047-AB80-29EC72CFAAB4}"/>
+              <c16:uniqueId val="{00000001-BCB0-214E-BFB1-8C2B2BDB882C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8593,11 +10118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="752796143"/>
-        <c:axId val="777797103"/>
+        <c:axId val="17116239"/>
+        <c:axId val="2133512256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="752796143"/>
+        <c:axId val="17116239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8640,7 +10165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777797103"/>
+        <c:crossAx val="2133512256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8648,7 +10173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="777797103"/>
+        <c:axId val="2133512256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8700,7 +10225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752796143"/>
+        <c:crossAx val="17116239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10451,10 +11976,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5EA1DBC8-9F60-7040-838B-27AAE9CB2CEF}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{36A4AB26-D7F9-7048-BF5C-7291AB82CCAD}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10462,10 +11987,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5B31E5CF-9B6B-814F-AA65-169B390751FC}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A9023AD2-EE93-8B4D-BA5F-D374F77183C0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10473,7 +11998,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D3232F84-9F8D-5C42-A983-FAC011443988}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0A088B1B-ECBA-CC47-A092-036379B9410C}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
@@ -10487,13 +12012,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673411" cy="6290930"/>
+    <xdr:ext cx="8678333" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE42C482-44E6-084A-BD66-8367362DB6E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC74130-4AEC-E84E-B523-98F14798D4CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10520,13 +12045,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673411" cy="6290930"/>
+    <xdr:ext cx="8678333" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D758D4-5B54-DD41-BB12-CCF863A80079}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411C8811-C9DA-7340-A6FA-C923F4693A8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10553,13 +12078,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673411" cy="6290930"/>
+    <xdr:ext cx="8678333" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D84E1D-76E6-9C40-98C5-DEB9B1BA3580}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD521A49-1576-394A-92D4-5756841171D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10881,8 +12406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554741DB-3EAE-0D49-9F3B-AD9D63F3007A}">
   <dimension ref="A1:K254"/>
   <sheetViews>
-    <sheetView topLeftCell="B216" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I254"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
